--- a/medicine/Enfance/HongFei_Cultures/HongFei_Cultures.xlsx
+++ b/medicine/Enfance/HongFei_Cultures/HongFei_Cultures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 HongFei Cultures est une maison d'édition interculturelle française spécialisée jeunesse autour de la culture chinoise.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fondées en 2007 par Loïc Jacob et Chun-Liang Yeh, les éditions HongFei Cultures sont nées d’une intention interculturelle (la rencontre des cultures chinoise et française)[1]. Tout d'abord basée à Champs-sur-Marne, la maison est installée à Amboise en région Centre-Val de Loire depuis 2013.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fondées en 2007 par Loïc Jacob et Chun-Liang Yeh, les éditions HongFei Cultures sont nées d’une intention interculturelle (la rencontre des cultures chinoise et française). Tout d'abord basée à Champs-sur-Marne, la maison est installée à Amboise en région Centre-Val de Loire depuis 2013.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Signification du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La maison tire son nom du mot chinois HongFei 鴻飛  qui signifie « Grand oiseau en vol ». Ce mot est emprunté au poète Su Dongpo (1037-1101) qui, dans l'un de ses textes, compare la vie à un grand oiseau qui vole librement à l’est et à l’ouest en survolant des montagnes enneigées où il laisse des empreintes sans s’y attacher.
 </t>
@@ -574,9 +590,11 @@
           <t>Catalogue</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le catalogue des éditions HongFei Cultures compte une dizaine de titres supplémentaires chaque année. Trois thèmes majeurs y sont présents : le voyage, l'intérêt pour l'inconnu et la relation à l'autre[2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le catalogue des éditions HongFei Cultures compte une dizaine de titres supplémentaires chaque année. Trois thèmes majeurs y sont présents : le voyage, l'intérêt pour l'inconnu et la relation à l'autre,.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Quelques auteurs et illustrateurs présents au catalogue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parmi les auteurs et illustrateurs publiés figurent[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les auteurs et illustrateurs publiés figurent :
 Géraldine Alibeu
 Pierre Cornuel
 Thierry Dedieu
@@ -645,14 +665,16 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Pépite du Salon du livre et de la presse jeunesse 2014, catégorie documentaire : Chine, Scènes de la vie quotidienne de Nicolas Jolivot (texte et illustrations)[5].
-Prix Chen Bochui international 2015 : La ballade de Mulan de Chun-Liang Yeh (texte) et Clémence Pollet (illustrations) [6]
-Prix des Incorruptibles 2016, catégorie CP : Chut de Morgane de Cadier (texte) et Florian Pigé (illustrations) [7]
-Grand Prix du Carnet de voyage de la Fondation Michelin 2018 : Japon, à pied sous les volcans de Nicolas Jolivot [8]
-Prix Landerneau 2020, catégorie album jeunesse : Bulle d'été de Florian Pigé (texte et illustrations) [9]
-Prix Sorcières 2021, catégorie Carrément beau maxi : Nuit étoilée de Jimmy Liao (texte et illustrations)[10].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pépite du Salon du livre et de la presse jeunesse 2014, catégorie documentaire : Chine, Scènes de la vie quotidienne de Nicolas Jolivot (texte et illustrations).
+Prix Chen Bochui international 2015 : La ballade de Mulan de Chun-Liang Yeh (texte) et Clémence Pollet (illustrations) 
+Prix des Incorruptibles 2016, catégorie CP : Chut de Morgane de Cadier (texte) et Florian Pigé (illustrations) 
+Grand Prix du Carnet de voyage de la Fondation Michelin 2018 : Japon, à pied sous les volcans de Nicolas Jolivot 
+Prix Landerneau 2020, catégorie album jeunesse : Bulle d'été de Florian Pigé (texte et illustrations) 
+Prix Sorcières 2021, catégorie Carrément beau maxi : Nuit étoilée de Jimmy Liao (texte et illustrations).</t>
         </is>
       </c>
     </row>
